--- a/exel_data.xlsx
+++ b/exel_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F856F-CC0E-4447-A253-DF87FC613E4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF51A9D-D96B-4CF6-ABE2-3DB2E6136086}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Bidur</t>
+  </si>
+  <si>
+    <t>n.a.</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -461,8 +464,8 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>24</v>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
